--- a/sw/test/UltrasonicTest/UltrasonicDump.xlsx
+++ b/sw/test/UltrasonicTest/UltrasonicDump.xlsx
@@ -10,12 +10,12 @@
     <sheet name="UltrasonicDump" sheetId="1" r:id="rId1"/>
     <sheet name="Test" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="40">
   <si>
     <t>idx_x</t>
   </si>
@@ -114,6 +114,27 @@
   </si>
   <si>
     <t>phase bits</t>
+  </si>
+  <si>
+    <t>PHASE RES</t>
+  </si>
+  <si>
+    <t>10 bit</t>
+  </si>
+  <si>
+    <t>8 bit</t>
+  </si>
+  <si>
+    <t>6 bit</t>
+  </si>
+  <si>
+    <t>ERROR DEG</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>DEV</t>
   </si>
 </sst>
 </file>
@@ -605,7 +626,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -613,6 +634,10 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1703,10 +1728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,14 +1741,19 @@
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="13" customWidth="1"/>
+    <col min="9" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="11" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1742,41 +1772,64 @@
       <c r="F1">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="AE1" t="s">
         <v>24</v>
       </c>
-      <c r="U1">
+      <c r="AF1">
         <v>8.6</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="P2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="S2" s="2" t="s">
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AD2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1805,40 +1858,64 @@
         <v>31</v>
       </c>
       <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="P3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
-      <c r="S3" t="s">
-        <v>16</v>
+      <c r="R3" t="s">
+        <v>37</v>
       </c>
       <c r="T3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="U3" t="s">
         <v>19</v>
       </c>
-      <c r="W3" t="s">
+      <c r="V3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1867,51 +1944,85 @@
         <f>TRUNC(((H4 * 100) / 255) / 10)</f>
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4">
         <f>TRUNC(((G4) * 10) / 255)</f>
         <v>4</v>
       </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
       <c r="M4">
-        <f>E4-$B$1</f>
+        <f>L4*360/10</f>
+        <v>144</v>
+      </c>
+      <c r="N4" s="4">
+        <f>AF4-M4</f>
+        <v>10.284691935536102</v>
+      </c>
+      <c r="P4">
+        <f>TRUNC((($G4) * 8) / 255)</f>
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f>P4*360/8</f>
+        <v>135</v>
+      </c>
+      <c r="R4" s="4">
+        <f>$AF4-Q4</f>
+        <v>19.284691935536102</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4">
+        <f>TRUNC((($G4) * 6) / 255)</f>
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <f>T4*360/6</f>
+        <v>120</v>
+      </c>
+      <c r="V4" s="4">
+        <f>$AF4-U4</f>
+        <v>34.284691935536102</v>
+      </c>
+      <c r="W4" s="4"/>
+      <c r="X4">
+        <f t="shared" ref="X4:X27" si="0">E4-$B$1</f>
         <v>-19</v>
       </c>
-      <c r="N4">
-        <f>F4-$D$1</f>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y27" si="1">F4-$D$1</f>
         <v>-34</v>
       </c>
-      <c r="O4" s="4">
-        <f>TRUNC(SQRT(((M4*M4)+(N4*N4)+($F$1*$F$1)) *100))</f>
+      <c r="Z4" s="4">
+        <f>TRUNC(SQRT(((X4*X4)+(Y4*Y4)+($F$1*$F$1)) *100))</f>
         <v>633</v>
       </c>
-      <c r="P4">
-        <f>MOD(TRUNC(O4*2550/860) +D4,255)</f>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AA27" si="2">MOD(TRUNC(Z4*2550/860) +D4,255)</f>
         <v>106</v>
       </c>
-      <c r="Q4" s="4">
-        <f>P4*360/255</f>
+      <c r="AB4" s="4">
+        <f>AA4*360/255</f>
         <v>149.64705882352942</v>
       </c>
-      <c r="S4" s="3">
-        <f>SQRT((M4*M4)+(N4*N4)+($F$1*$F$1))</f>
+      <c r="AD4" s="3">
+        <f t="shared" ref="AD4:AD27" si="3">SQRT((X4*X4)+(Y4*Y4)+($F$1*$F$1))</f>
         <v>63.3798075099633</v>
       </c>
-      <c r="T4" s="3">
-        <f>MOD(((S4*255)/$U$1) +D4,255)</f>
+      <c r="AE4" s="3">
+        <f t="shared" ref="AE4:AE27" si="4">MOD(((AD4*255)/$AF$1) +D4,255)</f>
         <v>109.28499012100474</v>
       </c>
-      <c r="U4" s="4">
-        <f>MOD((S4*360)/$U$1,360)</f>
-        <v>133.10822134730097</v>
-      </c>
-      <c r="W4" s="4">
-        <f>T4-P4</f>
+      <c r="AF4" s="4">
+        <f>MOD(((AD4*360)/$AF$1) + ((D4*360)/255),360)</f>
+        <v>154.2846919355361</v>
+      </c>
+      <c r="AH4" s="4">
+        <f t="shared" ref="AH4:AH27" si="5">AE4-AA4</f>
         <v>3.2849901210047392</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1937,54 +2048,88 @@
         <v>128</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I27" si="0">TRUNC(((H5 * 100) / 255) / 10)</f>
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ref="J5:J27" si="1">TRUNC(((G5) * 10) / 255)</f>
+        <f t="shared" ref="I5:I27" si="6">TRUNC(((H5 * 100) / 255) / 10)</f>
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5">
+        <f>TRUNC(((G5) * 10) / 255)</f>
         <v>7</v>
       </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
       <c r="M5">
-        <f>E5-$B$1</f>
+        <f t="shared" ref="M5:M27" si="7">L5*360/10</f>
+        <v>252</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" ref="N5:N27" si="8">AF5-M5</f>
+        <v>13.52327199640149</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P27" si="9">TRUNC((($G5) * 8) / 255)</f>
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q27" si="10">P5*360/8</f>
+        <v>225</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" ref="R5:R27" si="11">$AF5-Q5</f>
+        <v>40.52327199640149</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5">
+        <f t="shared" ref="T5:T27" si="12">TRUNC((($G5) * 6) / 255)</f>
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:U27" si="13">T5*360/6</f>
+        <v>240</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" ref="V5:V27" si="14">$AF5-U5</f>
+        <v>25.52327199640149</v>
+      </c>
+      <c r="W5" s="4"/>
+      <c r="X5">
+        <f t="shared" si="0"/>
         <v>-19</v>
       </c>
-      <c r="N5">
-        <f>F5-$D$1</f>
+      <c r="Y5">
+        <f t="shared" si="1"/>
         <v>-19</v>
       </c>
-      <c r="O5" s="4">
-        <f t="shared" ref="O5:O27" si="2">TRUNC(SQRT(((M5*M5)+(N5*N5)+($F$1*$F$1)) *100))</f>
+      <c r="Z5" s="4">
+        <f t="shared" ref="Z5:Z27" si="15">TRUNC(SQRT(((X5*X5)+(Y5*Y5)+($F$1*$F$1)) *100))</f>
         <v>567</v>
       </c>
-      <c r="P5">
-        <f>MOD(TRUNC(O5*2550/860) +D5,255)</f>
+      <c r="AA5">
+        <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="Q5" s="4">
-        <f>P5*360/255</f>
+      <c r="AB5" s="4">
+        <f>AA5*360/255</f>
         <v>262.58823529411762</v>
       </c>
-      <c r="S5" s="3">
-        <f>SQRT((M5*M5)+(N5*N5)+($F$1*$F$1))</f>
+      <c r="AD5" s="3">
+        <f t="shared" si="3"/>
         <v>56.762663785273503</v>
       </c>
-      <c r="T5" s="3">
-        <f>MOD(((S5*255)/$U$1) +D5,255)</f>
+      <c r="AE5" s="3">
+        <f t="shared" si="4"/>
         <v>188.07898433078412</v>
       </c>
-      <c r="U5" s="4">
-        <f>MOD((S5*360)/$U$1,360)</f>
-        <v>216.11150729051906</v>
-      </c>
-      <c r="W5" s="4">
-        <f>T5-P5</f>
+      <c r="AF5" s="4">
+        <f>MOD(((AD5*360)/$AF$1) + ((D5*360)/255),360)</f>
+        <v>265.52327199640149</v>
+      </c>
+      <c r="AH5" s="4">
+        <f t="shared" si="5"/>
         <v>2.0789843307841238</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2010,54 +2155,88 @@
         <v>128</v>
       </c>
       <c r="I6">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <f>TRUNC(((G6) * 10) / 255)</f>
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="8"/>
+        <v>18.945012072552345</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="10"/>
+        <v>135</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" si="11"/>
+        <v>27.945012072552345</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" si="14"/>
+        <v>42.945012072552345</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J6">
+        <v>-19</v>
+      </c>
+      <c r="Y6">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6">
-        <f>E6-$B$1</f>
-        <v>-19</v>
-      </c>
-      <c r="N6">
-        <f>F6-$D$1</f>
         <v>-4</v>
       </c>
-      <c r="O6" s="4">
+      <c r="Z6" s="4">
+        <f t="shared" si="15"/>
+        <v>536</v>
+      </c>
+      <c r="AA6">
         <f t="shared" si="2"/>
-        <v>536</v>
-      </c>
-      <c r="P6">
-        <f>MOD(TRUNC(O6*2550/860) +D6,255)</f>
         <v>114</v>
       </c>
-      <c r="Q6" s="4">
-        <f t="shared" ref="Q6:Q27" si="3">P6*360/255</f>
+      <c r="AB6" s="4">
+        <f t="shared" ref="AB6:AB27" si="16">AA6*360/255</f>
         <v>160.94117647058823</v>
       </c>
-      <c r="S6" s="3">
-        <f>SQRT((M6*M6)+(N6*N6)+($F$1*$F$1))</f>
+      <c r="AD6" s="3">
+        <f t="shared" si="3"/>
         <v>53.637673327615545</v>
       </c>
-      <c r="T6" s="3">
-        <f>MOD(((S6*255)/$U$1) +D6,255)</f>
+      <c r="AE6" s="3">
+        <f t="shared" si="4"/>
         <v>115.41938355139132</v>
       </c>
-      <c r="U6" s="4">
-        <f>MOD((S6*360)/$U$1,360)</f>
-        <v>85.297953249023067</v>
-      </c>
-      <c r="W6" s="4">
-        <f>T6-P6</f>
+      <c r="AF6" s="4">
+        <f>MOD(((AD6*360)/$AF$1) + ((D6*360)/255),360)</f>
+        <v>162.94501207255234</v>
+      </c>
+      <c r="AH6" s="4">
+        <f t="shared" si="5"/>
         <v>1.41938355139132</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2083,54 +2262,88 @@
         <v>128</v>
       </c>
       <c r="I7">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7">
+        <f>TRUNC(((G7) * 10) / 255)</f>
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="7"/>
+        <v>216</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="8"/>
+        <v>15.785729188328332</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="10"/>
+        <v>225</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" si="11"/>
+        <v>6.7857291883283324</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="13"/>
+        <v>180</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="14"/>
+        <v>51.785729188328332</v>
+      </c>
+      <c r="W7" s="4"/>
+      <c r="X7">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J7">
+        <v>-19</v>
+      </c>
+      <c r="Y7">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7">
-        <f>E7-$B$1</f>
-        <v>-19</v>
-      </c>
-      <c r="N7">
-        <f>F7-$D$1</f>
         <v>11</v>
       </c>
-      <c r="O7" s="4">
+      <c r="Z7" s="4">
+        <f t="shared" si="15"/>
+        <v>546</v>
+      </c>
+      <c r="AA7">
         <f t="shared" si="2"/>
-        <v>546</v>
-      </c>
-      <c r="P7">
-        <f>MOD(TRUNC(O7*2550/860) +D7,255)</f>
         <v>163</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="AB7" s="4">
+        <f t="shared" si="16"/>
+        <v>230.11764705882354</v>
+      </c>
+      <c r="AD7" s="3">
         <f t="shared" si="3"/>
-        <v>230.11764705882354</v>
-      </c>
-      <c r="S7" s="3">
-        <f>SQRT((M7*M7)+(N7*N7)+($F$1*$F$1))</f>
         <v>54.607691765904185</v>
       </c>
-      <c r="T7" s="3">
-        <f>MOD(((S7*255)/$U$1) +D7,255)</f>
+      <c r="AE7" s="3">
+        <f t="shared" si="4"/>
         <v>164.1815581750659</v>
       </c>
-      <c r="U7" s="4">
-        <f>MOD((S7*360)/$U$1,360)</f>
-        <v>125.90337624715175</v>
-      </c>
-      <c r="W7" s="4">
-        <f>T7-P7</f>
+      <c r="AF7" s="4">
+        <f>MOD(((AD7*360)/$AF$1) + ((D7*360)/255),360)</f>
+        <v>231.78572918832833</v>
+      </c>
+      <c r="AH7" s="4">
+        <f t="shared" si="5"/>
         <v>1.1815581750659021</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2156,54 +2369,88 @@
         <v>128</v>
       </c>
       <c r="I8">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <f>TRUNC(((G8) * 10) / 255)</f>
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="8"/>
+        <v>31.671810980559258</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="R8" s="4">
+        <f t="shared" si="11"/>
+        <v>13.671810980559258</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="14"/>
+        <v>43.671810980559258</v>
+      </c>
+      <c r="W8" s="4"/>
+      <c r="X8">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J8">
+        <v>-19</v>
+      </c>
+      <c r="Y8">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8">
-        <f>E8-$B$1</f>
-        <v>-19</v>
-      </c>
-      <c r="N8">
-        <f>F8-$D$1</f>
         <v>26</v>
       </c>
-      <c r="O8" s="4">
+      <c r="Z8" s="4">
+        <f t="shared" si="15"/>
+        <v>594</v>
+      </c>
+      <c r="AA8">
         <f t="shared" si="2"/>
-        <v>594</v>
-      </c>
-      <c r="P8">
-        <f>MOD(TRUNC(O8*2550/860) +D8,255)</f>
         <v>71</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="AB8" s="4">
+        <f t="shared" si="16"/>
+        <v>100.23529411764706</v>
+      </c>
+      <c r="AD8" s="3">
         <f t="shared" si="3"/>
-        <v>100.23529411764706</v>
-      </c>
-      <c r="S8" s="3">
-        <f>SQRT((M8*M8)+(N8*N8)+($F$1*$F$1))</f>
         <v>59.472682804797024</v>
       </c>
-      <c r="T8" s="3">
-        <f>MOD(((S8*255)/$U$1) +D8,255)</f>
+      <c r="AE8" s="3">
+        <f t="shared" si="4"/>
         <v>73.434199444563092</v>
       </c>
-      <c r="U8" s="4">
-        <f>MOD((S8*360)/$U$1,360)</f>
-        <v>329.55416392173584</v>
-      </c>
-      <c r="W8" s="4">
-        <f>T8-P8</f>
+      <c r="AF8" s="4">
+        <f>MOD(((AD8*360)/$AF$1) + ((D8*360)/255),360)</f>
+        <v>103.67181098055926</v>
+      </c>
+      <c r="AH8" s="4">
+        <f t="shared" si="5"/>
         <v>2.4341994445630917</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2229,54 +2476,88 @@
         <v>128</v>
       </c>
       <c r="I9">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <f>TRUNC(((G9) * 10) / 255)</f>
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="8"/>
+        <v>31.512271584809696</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="11"/>
+        <v>13.512271584809696</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="14"/>
+        <v>43.512271584809696</v>
+      </c>
+      <c r="W9" s="4"/>
+      <c r="X9">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J9">
+        <v>-19</v>
+      </c>
+      <c r="Y9">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9">
-        <f>E9-$B$1</f>
-        <v>-19</v>
-      </c>
-      <c r="N9">
-        <f>F9-$D$1</f>
         <v>41</v>
       </c>
-      <c r="O9" s="4">
+      <c r="Z9" s="4">
+        <f t="shared" si="15"/>
+        <v>673</v>
+      </c>
+      <c r="AA9">
         <f t="shared" si="2"/>
-        <v>673</v>
-      </c>
-      <c r="P9">
-        <f>MOD(TRUNC(O9*2550/860) +D9,255)</f>
         <v>70</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="AB9" s="4">
+        <f t="shared" si="16"/>
+        <v>98.82352941176471</v>
+      </c>
+      <c r="AD9" s="3">
         <f t="shared" si="3"/>
-        <v>98.82352941176471</v>
-      </c>
-      <c r="S9" s="3">
-        <f>SQRT((M9*M9)+(N9*N9)+($F$1*$F$1))</f>
         <v>67.394361781976983</v>
       </c>
-      <c r="T9" s="3">
-        <f>MOD(((S9*255)/$U$1) +D9,255)</f>
+      <c r="AE9" s="3">
+        <f t="shared" si="4"/>
         <v>73.321192372573023</v>
       </c>
-      <c r="U9" s="4">
-        <f>MOD((S9*360)/$U$1,360)</f>
-        <v>301.15933040833897</v>
-      </c>
-      <c r="W9" s="4">
-        <f>T9-P9</f>
+      <c r="AF9" s="4">
+        <f>MOD(((AD9*360)/$AF$1) + ((D9*360)/255),360)</f>
+        <v>103.5122715848097</v>
+      </c>
+      <c r="AH9" s="4">
+        <f t="shared" si="5"/>
         <v>3.321192372573023</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2302,54 +2583,88 @@
         <v>128</v>
       </c>
       <c r="I10">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <f>TRUNC(((G10) * 10) / 255)</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="8"/>
+        <v>30.73749204278738</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" si="11"/>
+        <v>30.73749204278738</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="14"/>
+        <v>30.73749204278738</v>
+      </c>
+      <c r="W10" s="4"/>
+      <c r="X10">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J10">
+        <v>-4</v>
+      </c>
+      <c r="Y10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10">
-        <f>E10-$B$1</f>
-        <v>-4</v>
-      </c>
-      <c r="N10">
-        <f>F10-$D$1</f>
         <v>-34</v>
       </c>
-      <c r="O10" s="4">
+      <c r="Z10" s="4">
+        <f t="shared" si="15"/>
+        <v>605</v>
+      </c>
+      <c r="AA10">
         <f t="shared" si="2"/>
-        <v>605</v>
-      </c>
-      <c r="P10">
-        <f>MOD(TRUNC(O10*2550/860) +D10,255)</f>
         <v>18</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="AB10" s="4">
+        <f t="shared" si="16"/>
+        <v>25.411764705882351</v>
+      </c>
+      <c r="AD10" s="3">
         <f t="shared" si="3"/>
-        <v>25.411764705882351</v>
-      </c>
-      <c r="S10" s="3">
-        <f>SQRT((M10*M10)+(N10*N10)+($F$1*$F$1))</f>
         <v>60.597029630172464</v>
       </c>
-      <c r="T10" s="3">
-        <f>MOD(((S10*255)/$U$1) +D10,255)</f>
+      <c r="AE10" s="3">
+        <f t="shared" si="4"/>
         <v>21.772390196974357</v>
       </c>
-      <c r="U10" s="4">
-        <f>MOD((S10*360)/$U$1,360)</f>
-        <v>16.619844983963958</v>
-      </c>
-      <c r="W10" s="4">
-        <f>T10-P10</f>
+      <c r="AF10" s="4">
+        <f>MOD(((AD10*360)/$AF$1) + ((D10*360)/255),360)</f>
+        <v>30.73749204278738</v>
+      </c>
+      <c r="AH10" s="4">
+        <f t="shared" si="5"/>
         <v>3.7723901969743565</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2375,54 +2690,88 @@
         <v>128</v>
       </c>
       <c r="I11">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <f>TRUNC(((G11) * 10) / 255)</f>
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="8"/>
+        <v>19.650894425493789</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="shared" si="11"/>
+        <v>37.650894425493789</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" si="14"/>
+        <v>7.6508944254937887</v>
+      </c>
+      <c r="W11" s="4"/>
+      <c r="X11">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J11">
+        <v>-4</v>
+      </c>
+      <c r="Y11">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11">
-        <f>E11-$B$1</f>
-        <v>-4</v>
-      </c>
-      <c r="N11">
-        <f>F11-$D$1</f>
         <v>-19</v>
       </c>
-      <c r="O11" s="4">
+      <c r="Z11" s="4">
+        <f t="shared" si="15"/>
+        <v>536</v>
+      </c>
+      <c r="AA11">
         <f t="shared" si="2"/>
-        <v>536</v>
-      </c>
-      <c r="P11">
-        <f>MOD(TRUNC(O11*2550/860) +D11,255)</f>
         <v>89</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="AB11" s="4">
+        <f t="shared" si="16"/>
+        <v>125.64705882352941</v>
+      </c>
+      <c r="AD11" s="3">
         <f t="shared" si="3"/>
-        <v>125.64705882352941</v>
-      </c>
-      <c r="S11" s="3">
-        <f>SQRT((M11*M11)+(N11*N11)+($F$1*$F$1))</f>
         <v>53.637673327615545</v>
       </c>
-      <c r="T11" s="3">
-        <f>MOD(((S11*255)/$U$1) +D11,255)</f>
+      <c r="AE11" s="3">
+        <f t="shared" si="4"/>
         <v>90.41938355139132</v>
       </c>
-      <c r="U11" s="4">
-        <f>MOD((S11*360)/$U$1,360)</f>
-        <v>85.297953249023067</v>
-      </c>
-      <c r="W11" s="4">
-        <f>T11-P11</f>
+      <c r="AF11" s="4">
+        <f>MOD(((AD11*360)/$AF$1) + ((D11*360)/255),360)</f>
+        <v>127.65089442549379</v>
+      </c>
+      <c r="AH11" s="4">
+        <f t="shared" si="5"/>
         <v>1.41938355139132</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2448,54 +2797,88 @@
         <v>128</v>
       </c>
       <c r="I12">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12">
+        <f>TRUNC(((G12) * 10) / 255)</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="8"/>
+        <v>16.964246990529318</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="shared" si="11"/>
+        <v>16.964246990529318</v>
+      </c>
+      <c r="S12" s="4"/>
+      <c r="T12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" si="14"/>
+        <v>16.964246990529318</v>
+      </c>
+      <c r="W12" s="4"/>
+      <c r="X12">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J12">
+        <v>-4</v>
+      </c>
+      <c r="Y12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12">
-        <f>E12-$B$1</f>
         <v>-4</v>
       </c>
-      <c r="N12">
-        <f>F12-$D$1</f>
-        <v>-4</v>
-      </c>
-      <c r="O12" s="4">
+      <c r="Z12" s="4">
+        <f t="shared" si="15"/>
+        <v>503</v>
+      </c>
+      <c r="AA12">
         <f t="shared" si="2"/>
-        <v>503</v>
-      </c>
-      <c r="P12">
-        <f>MOD(TRUNC(O12*2550/860) +D12,255)</f>
         <v>11</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="AB12" s="4">
+        <f t="shared" si="16"/>
+        <v>15.529411764705882</v>
+      </c>
+      <c r="AD12" s="3">
         <f t="shared" si="3"/>
-        <v>15.529411764705882</v>
-      </c>
-      <c r="S12" s="3">
-        <f>SQRT((M12*M12)+(N12*N12)+($F$1*$F$1))</f>
         <v>50.318982501636498</v>
       </c>
-      <c r="T12" s="3">
-        <f>MOD(((S12*255)/$U$1) +D12,255)</f>
+      <c r="AE12" s="3">
+        <f t="shared" si="4"/>
         <v>12.016341618291563</v>
       </c>
-      <c r="U12" s="4">
-        <f>MOD((S12*360)/$U$1,360)</f>
-        <v>306.37601169641175</v>
-      </c>
-      <c r="W12" s="4">
-        <f>T12-P12</f>
+      <c r="AF12" s="4">
+        <f>MOD(((AD12*360)/$AF$1) + ((D12*360)/255),360)</f>
+        <v>16.964246990529318</v>
+      </c>
+      <c r="AH12" s="4">
+        <f t="shared" si="5"/>
         <v>1.0163416182915626</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2521,54 +2904,88 @@
         <v>128</v>
       </c>
       <c r="I13">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <f>TRUNC(((G13) * 10) / 255)</f>
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="8"/>
+        <v>16.430760820321666</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="R13" s="4">
+        <f t="shared" si="11"/>
+        <v>43.430760820321666</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="14"/>
+        <v>28.430760820321666</v>
+      </c>
+      <c r="W13" s="4"/>
+      <c r="X13">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J13">
+        <v>-4</v>
+      </c>
+      <c r="Y13">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13">
-        <f>E13-$B$1</f>
-        <v>-4</v>
-      </c>
-      <c r="N13">
-        <f>F13-$D$1</f>
         <v>11</v>
       </c>
-      <c r="O13" s="4">
+      <c r="Z13" s="4">
+        <f t="shared" si="15"/>
+        <v>513</v>
+      </c>
+      <c r="AA13">
         <f t="shared" si="2"/>
-        <v>513</v>
-      </c>
-      <c r="P13">
-        <f>MOD(TRUNC(O13*2550/860) +D13,255)</f>
         <v>61</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="AB13" s="4">
+        <f t="shared" si="16"/>
+        <v>86.117647058823536</v>
+      </c>
+      <c r="AD13" s="3">
         <f t="shared" si="3"/>
-        <v>86.117647058823536</v>
-      </c>
-      <c r="S13" s="3">
-        <f>SQRT((M13*M13)+(N13*N13)+($F$1*$F$1))</f>
         <v>51.35172830587107</v>
       </c>
-      <c r="T13" s="3">
-        <f>MOD(((S13*255)/$U$1) +D13,255)</f>
+      <c r="AE13" s="3">
+        <f t="shared" si="4"/>
         <v>62.638455581060725</v>
       </c>
-      <c r="U13" s="4">
-        <f>MOD((S13*360)/$U$1,360)</f>
-        <v>349.6072314085568</v>
-      </c>
-      <c r="W13" s="4">
-        <f>T13-P13</f>
+      <c r="AF13" s="4">
+        <f>MOD(((AD13*360)/$AF$1) + ((D13*360)/255),360)</f>
+        <v>88.430760820321666</v>
+      </c>
+      <c r="AH13" s="4">
+        <f t="shared" si="5"/>
         <v>1.6384555810607253</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2594,54 +3011,88 @@
         <v>128</v>
       </c>
       <c r="I14">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14">
+        <f>TRUNC(((G14) * 10) / 255)</f>
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="7"/>
+        <v>324</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="8"/>
+        <v>8.0824891374086292</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="10"/>
+        <v>315</v>
+      </c>
+      <c r="R14" s="4">
+        <f t="shared" si="11"/>
+        <v>17.082489137408629</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="14"/>
+        <v>32.082489137408629</v>
+      </c>
+      <c r="W14" s="4"/>
+      <c r="X14">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J14">
+        <v>-4</v>
+      </c>
+      <c r="Y14">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K14" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14">
-        <f>E14-$B$1</f>
-        <v>-4</v>
-      </c>
-      <c r="N14">
-        <f>F14-$D$1</f>
         <v>26</v>
       </c>
-      <c r="O14" s="4">
+      <c r="Z14" s="4">
+        <f t="shared" si="15"/>
+        <v>564</v>
+      </c>
+      <c r="AA14">
         <f t="shared" si="2"/>
-        <v>564</v>
-      </c>
-      <c r="P14">
-        <f>MOD(TRUNC(O14*2550/860) +D14,255)</f>
         <v>232</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="AB14" s="4">
+        <f t="shared" si="16"/>
+        <v>327.52941176470586</v>
+      </c>
+      <c r="AD14" s="3">
         <f t="shared" si="3"/>
-        <v>327.52941176470586</v>
-      </c>
-      <c r="S14" s="3">
-        <f>SQRT((M14*M14)+(N14*N14)+($F$1*$F$1))</f>
         <v>56.49778756730214</v>
       </c>
-      <c r="T14" s="3">
-        <f>MOD(((S14*255)/$U$1) +D14,255)</f>
+      <c r="AE14" s="3">
+        <f t="shared" si="4"/>
         <v>235.22509647233096</v>
       </c>
-      <c r="U14" s="4">
-        <f>MOD((S14*360)/$U$1,360)</f>
-        <v>205.02366560799692</v>
-      </c>
-      <c r="W14" s="4">
-        <f>T14-P14</f>
+      <c r="AF14" s="4">
+        <f>MOD(((AD14*360)/$AF$1) + ((D14*360)/255),360)</f>
+        <v>332.08248913740863</v>
+      </c>
+      <c r="AH14" s="4">
+        <f t="shared" si="5"/>
         <v>3.2250964723309608</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2667,54 +3118,88 @@
         <v>128</v>
       </c>
       <c r="I15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15">
+        <f>TRUNC(((G15) * 10) / 255)</f>
+        <v>9</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="7"/>
+        <v>324</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="8"/>
+        <v>23.193262404447978</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="10"/>
+        <v>315</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" si="11"/>
+        <v>32.193262404447978</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" si="14"/>
+        <v>47.193262404447978</v>
+      </c>
+      <c r="W15" s="4"/>
+      <c r="X15">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J15">
+        <v>-4</v>
+      </c>
+      <c r="Y15">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K15" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15">
-        <f>E15-$B$1</f>
-        <v>-4</v>
-      </c>
-      <c r="N15">
-        <f>F15-$D$1</f>
         <v>41</v>
       </c>
-      <c r="O15" s="4">
+      <c r="Z15" s="4">
+        <f t="shared" si="15"/>
+        <v>647</v>
+      </c>
+      <c r="AA15">
         <f t="shared" si="2"/>
-        <v>647</v>
-      </c>
-      <c r="P15">
-        <f>MOD(TRUNC(O15*2550/860) +D15,255)</f>
         <v>243</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="AB15" s="4">
+        <f t="shared" si="16"/>
+        <v>343.05882352941177</v>
+      </c>
+      <c r="AD15" s="3">
         <f t="shared" si="3"/>
-        <v>343.05882352941177</v>
-      </c>
-      <c r="S15" s="3">
-        <f>SQRT((M15*M15)+(N15*N15)+($F$1*$F$1))</f>
         <v>64.784257346982073</v>
       </c>
-      <c r="T15" s="3">
-        <f>MOD(((S15*255)/$U$1) +D15,255)</f>
+      <c r="AE15" s="3">
+        <f t="shared" si="4"/>
         <v>245.92856086981737</v>
       </c>
-      <c r="U15" s="4">
-        <f>MOD((S15*360)/$U$1,360)</f>
-        <v>191.89914475738897</v>
-      </c>
-      <c r="W15" s="4">
-        <f>T15-P15</f>
+      <c r="AF15" s="4">
+        <f>MOD(((AD15*360)/$AF$1) + ((D15*360)/255),360)</f>
+        <v>347.19326240444798</v>
+      </c>
+      <c r="AH15" s="4">
+        <f t="shared" si="5"/>
         <v>2.9285608698173746</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2740,54 +3225,88 @@
         <v>128</v>
       </c>
       <c r="I16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16">
+        <f>TRUNC(((G16) * 10) / 255)</f>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="8"/>
+        <v>23.690080557971669</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="R16" s="4">
+        <f t="shared" si="11"/>
+        <v>14.690080557971669</v>
+      </c>
+      <c r="S16" s="4"/>
+      <c r="T16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" si="14"/>
+        <v>59.690080557971669</v>
+      </c>
+      <c r="W16" s="4"/>
+      <c r="X16">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="Y16">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16">
-        <f>E16-$B$1</f>
-        <v>11</v>
-      </c>
-      <c r="N16">
-        <f>F16-$D$1</f>
         <v>-34</v>
       </c>
-      <c r="O16" s="4">
+      <c r="Z16" s="4">
+        <f t="shared" si="15"/>
+        <v>614</v>
+      </c>
+      <c r="AA16">
         <f t="shared" si="2"/>
-        <v>614</v>
-      </c>
-      <c r="P16">
-        <f>MOD(TRUNC(O16*2550/860) +D16,255)</f>
         <v>40</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="AB16" s="4">
+        <f t="shared" si="16"/>
+        <v>56.470588235294116</v>
+      </c>
+      <c r="AD16" s="3">
         <f t="shared" si="3"/>
-        <v>56.470588235294116</v>
-      </c>
-      <c r="S16" s="3">
-        <f>SQRT((M16*M16)+(N16*N16)+($F$1*$F$1))</f>
         <v>61.457302251237813</v>
       </c>
-      <c r="T16" s="3">
-        <f>MOD(((S16*255)/$U$1) +D16,255)</f>
+      <c r="AE16" s="3">
+        <f t="shared" si="4"/>
         <v>42.280473728563038</v>
       </c>
-      <c r="U16" s="4">
-        <f>MOD((S16*360)/$U$1,360)</f>
-        <v>52.631257028559958</v>
-      </c>
-      <c r="W16" s="4">
-        <f>T16-P16</f>
+      <c r="AF16" s="4">
+        <f>MOD(((AD16*360)/$AF$1) + ((D16*360)/255),360)</f>
+        <v>59.690080557971669</v>
+      </c>
+      <c r="AH16" s="4">
+        <f t="shared" si="5"/>
         <v>2.2804737285630381</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2813,54 +3332,88 @@
         <v>128</v>
       </c>
       <c r="I17">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17">
+        <f>TRUNC(((G17) * 10) / 255)</f>
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="8"/>
+        <v>17.197493894210766</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="10"/>
+        <v>135</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="11"/>
+        <v>26.197493894210766</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="T17">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="14"/>
+        <v>41.197493894210766</v>
+      </c>
+      <c r="W17" s="4"/>
+      <c r="X17">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J17">
+        <v>11</v>
+      </c>
+      <c r="Y17">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K17" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17">
-        <f>E17-$B$1</f>
-        <v>11</v>
-      </c>
-      <c r="N17">
-        <f>F17-$D$1</f>
         <v>-19</v>
       </c>
-      <c r="O17" s="4">
+      <c r="Z17" s="4">
+        <f t="shared" si="15"/>
+        <v>546</v>
+      </c>
+      <c r="AA17">
         <f t="shared" si="2"/>
-        <v>546</v>
-      </c>
-      <c r="P17">
-        <f>MOD(TRUNC(O17*2550/860) +D17,255)</f>
         <v>113</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="AB17" s="4">
+        <f t="shared" si="16"/>
+        <v>159.52941176470588</v>
+      </c>
+      <c r="AD17" s="3">
         <f t="shared" si="3"/>
-        <v>159.52941176470588</v>
-      </c>
-      <c r="S17" s="3">
-        <f>SQRT((M17*M17)+(N17*N17)+($F$1*$F$1))</f>
         <v>54.607691765904185</v>
       </c>
-      <c r="T17" s="3">
-        <f>MOD(((S17*255)/$U$1) +D17,255)</f>
+      <c r="AE17" s="3">
+        <f t="shared" si="4"/>
         <v>114.1815581750659</v>
       </c>
-      <c r="U17" s="4">
-        <f>MOD((S17*360)/$U$1,360)</f>
-        <v>125.90337624715175</v>
-      </c>
-      <c r="W17" s="4">
-        <f>T17-P17</f>
+      <c r="AF17" s="4">
+        <f>MOD(((AD17*360)/$AF$1) + ((D17*360)/255),360)</f>
+        <v>161.19749389421077</v>
+      </c>
+      <c r="AH17" s="4">
+        <f t="shared" si="5"/>
         <v>1.1815581750659021</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2886,54 +3439,88 @@
         <v>128</v>
       </c>
       <c r="I18">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18">
+        <f>TRUNC(((G18) * 10) / 255)</f>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="8"/>
+        <v>17.136643173262655</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="R18" s="4">
+        <f t="shared" si="11"/>
+        <v>8.1366431732626552</v>
+      </c>
+      <c r="S18" s="4"/>
+      <c r="T18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="14"/>
+        <v>53.136643173262655</v>
+      </c>
+      <c r="W18" s="4"/>
+      <c r="X18">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J18">
+        <v>11</v>
+      </c>
+      <c r="Y18">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18">
-        <f>E18-$B$1</f>
-        <v>11</v>
-      </c>
-      <c r="N18">
-        <f>F18-$D$1</f>
         <v>-4</v>
       </c>
-      <c r="O18" s="4">
+      <c r="Z18" s="4">
+        <f t="shared" si="15"/>
+        <v>513</v>
+      </c>
+      <c r="AA18">
         <f t="shared" si="2"/>
-        <v>513</v>
-      </c>
-      <c r="P18">
-        <f>MOD(TRUNC(O18*2550/860) +D18,255)</f>
         <v>36</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="AB18" s="4">
+        <f t="shared" si="16"/>
+        <v>50.823529411764703</v>
+      </c>
+      <c r="AD18" s="3">
         <f t="shared" si="3"/>
-        <v>50.823529411764703</v>
-      </c>
-      <c r="S18" s="3">
-        <f>SQRT((M18*M18)+(N18*N18)+($F$1*$F$1))</f>
         <v>51.35172830587107</v>
       </c>
-      <c r="T18" s="3">
-        <f>MOD(((S18*255)/$U$1) +D18,255)</f>
+      <c r="AE18" s="3">
+        <f t="shared" si="4"/>
         <v>37.638455581060725</v>
       </c>
-      <c r="U18" s="4">
-        <f>MOD((S18*360)/$U$1,360)</f>
-        <v>349.6072314085568</v>
-      </c>
-      <c r="W18" s="4">
-        <f>T18-P18</f>
+      <c r="AF18" s="4">
+        <f>MOD(((AD18*360)/$AF$1) + ((D18*360)/255),360)</f>
+        <v>53.136643173262655</v>
+      </c>
+      <c r="AH18" s="4">
+        <f t="shared" si="5"/>
         <v>1.6384555810607253</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2959,54 +3546,88 @@
         <v>128</v>
       </c>
       <c r="I19">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19">
+        <f>TRUNC(((G19) * 10) / 255)</f>
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="8"/>
+        <v>15.750699450249613</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="11"/>
+        <v>33.750699450249613</v>
+      </c>
+      <c r="S19" s="4"/>
+      <c r="T19">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="14"/>
+        <v>3.7506994502496127</v>
+      </c>
+      <c r="W19" s="4"/>
+      <c r="X19">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J19">
+        <v>11</v>
+      </c>
+      <c r="Y19">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M19">
-        <f>E19-$B$1</f>
         <v>11</v>
       </c>
-      <c r="N19">
-        <f>F19-$D$1</f>
-        <v>11</v>
-      </c>
-      <c r="O19" s="4">
+      <c r="Z19" s="4">
+        <f t="shared" si="15"/>
+        <v>523</v>
+      </c>
+      <c r="AA19">
         <f t="shared" si="2"/>
-        <v>523</v>
-      </c>
-      <c r="P19">
-        <f>MOD(TRUNC(O19*2550/860) +D19,255)</f>
         <v>85</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="AB19" s="4">
+        <f t="shared" si="16"/>
+        <v>120</v>
+      </c>
+      <c r="AD19" s="3">
         <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="S19" s="3">
-        <f>SQRT((M19*M19)+(N19*N19)+($F$1*$F$1))</f>
         <v>52.364109846344185</v>
       </c>
-      <c r="T19" s="3">
-        <f>MOD(((S19*255)/$U$1) +D19,255)</f>
+      <c r="AE19" s="3">
+        <f t="shared" si="4"/>
         <v>87.656745443926411</v>
       </c>
-      <c r="U19" s="4">
-        <f>MOD((S19*360)/$U$1,360)</f>
-        <v>31.985993567896458</v>
-      </c>
-      <c r="W19" s="4">
-        <f>T19-P19</f>
+      <c r="AF19" s="4">
+        <f>MOD(((AD19*360)/$AF$1) + ((D19*360)/255),360)</f>
+        <v>123.75069945024961</v>
+      </c>
+      <c r="AH19" s="4">
+        <f t="shared" si="5"/>
         <v>2.6567454439264111</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3032,54 +3653,88 @@
         <v>128</v>
       </c>
       <c r="I20">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20">
+        <f>TRUNC(((G20) * 10) / 255)</f>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="8"/>
+        <v>3.6073484576804731</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="11"/>
+        <v>3.6073484576804731</v>
+      </c>
+      <c r="S20" s="4"/>
+      <c r="T20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="14"/>
+        <v>3.6073484576804731</v>
+      </c>
+      <c r="W20" s="4"/>
+      <c r="X20">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J20">
+        <v>11</v>
+      </c>
+      <c r="Y20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
-        <v>13</v>
-      </c>
-      <c r="M20">
-        <f>E20-$B$1</f>
-        <v>11</v>
-      </c>
-      <c r="N20">
-        <f>F20-$D$1</f>
         <v>26</v>
       </c>
-      <c r="O20" s="4">
+      <c r="Z20" s="4">
+        <f t="shared" si="15"/>
+        <v>574</v>
+      </c>
+      <c r="AA20">
         <f t="shared" si="2"/>
-        <v>574</v>
-      </c>
-      <c r="P20">
-        <f>MOD(TRUNC(O20*2550/860) +D20,255)</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="AB20" s="4">
+        <f t="shared" si="16"/>
+        <v>1.411764705882353</v>
+      </c>
+      <c r="AD20" s="3">
         <f t="shared" si="3"/>
-        <v>1.411764705882353</v>
-      </c>
-      <c r="S20" s="3">
-        <f>SQRT((M20*M20)+(N20*N20)+($F$1*$F$1))</f>
         <v>57.419508879822367</v>
       </c>
-      <c r="T20" s="3">
-        <f>MOD(((S20*255)/$U$1) +D20,255)</f>
+      <c r="AE20" s="3">
+        <f t="shared" si="4"/>
         <v>2.5552051575236874</v>
       </c>
-      <c r="U20" s="4">
-        <f>MOD((S20*360)/$U$1,360)</f>
-        <v>243.60734845768047</v>
-      </c>
-      <c r="W20" s="4">
-        <f>T20-P20</f>
+      <c r="AF20" s="4">
+        <f>MOD(((AD20*360)/$AF$1) + ((D20*360)/255),360)</f>
+        <v>3.6073484576804731</v>
+      </c>
+      <c r="AH20" s="4">
+        <f t="shared" si="5"/>
         <v>1.5552051575236874</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3105,54 +3760,88 @@
         <v>128</v>
       </c>
       <c r="I21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21">
+        <f>TRUNC(((G21) * 10) / 255)</f>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="8"/>
+        <v>13.847852001540559</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="11"/>
+        <v>13.847852001540559</v>
+      </c>
+      <c r="S21" s="4"/>
+      <c r="T21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="14"/>
+        <v>13.847852001540559</v>
+      </c>
+      <c r="W21" s="4"/>
+      <c r="X21">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J21">
+        <v>11</v>
+      </c>
+      <c r="Y21">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21">
-        <f>E21-$B$1</f>
-        <v>11</v>
-      </c>
-      <c r="N21">
-        <f>F21-$D$1</f>
         <v>41</v>
       </c>
-      <c r="O21" s="4">
+      <c r="Z21" s="4">
+        <f t="shared" si="15"/>
+        <v>655</v>
+      </c>
+      <c r="AA21">
         <f t="shared" si="2"/>
-        <v>655</v>
-      </c>
-      <c r="P21">
-        <f>MOD(TRUNC(O21*2550/860) +D21,255)</f>
         <v>7</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="AB21" s="4">
+        <f t="shared" si="16"/>
+        <v>9.882352941176471</v>
+      </c>
+      <c r="AD21" s="3">
         <f t="shared" si="3"/>
-        <v>9.882352941176471</v>
-      </c>
-      <c r="S21" s="3">
-        <f>SQRT((M21*M21)+(N21*N21)+($F$1*$F$1))</f>
         <v>65.589633327226338</v>
       </c>
-      <c r="T21" s="3">
-        <f>MOD(((S21*255)/$U$1) +D21,255)</f>
+      <c r="AE21" s="3">
+        <f t="shared" si="4"/>
         <v>9.8088951677582372</v>
       </c>
-      <c r="U21" s="4">
-        <f>MOD((S21*360)/$U$1,360)</f>
-        <v>225.61255788389326</v>
-      </c>
-      <c r="W21" s="4">
-        <f>T21-P21</f>
+      <c r="AF21" s="4">
+        <f>MOD(((AD21*360)/$AF$1) + ((D21*360)/255),360)</f>
+        <v>13.847852001540559</v>
+      </c>
+      <c r="AH21" s="4">
+        <f t="shared" si="5"/>
         <v>2.8088951677582372</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3178,54 +3867,88 @@
         <v>128</v>
       </c>
       <c r="I22">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22">
+        <f>TRUNC(((G22) * 10) / 255)</f>
+        <v>6</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="7"/>
+        <v>216</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="8"/>
+        <v>19.169191574679189</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="10"/>
+        <v>225</v>
+      </c>
+      <c r="R22" s="4">
+        <f t="shared" si="11"/>
+        <v>10.169191574679189</v>
+      </c>
+      <c r="S22" s="4"/>
+      <c r="T22">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="13"/>
+        <v>180</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="14"/>
+        <v>55.169191574679189</v>
+      </c>
+      <c r="W22" s="4"/>
+      <c r="X22">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J22">
+        <v>26</v>
+      </c>
+      <c r="Y22">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="K22" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22">
-        <f>E22-$B$1</f>
-        <v>26</v>
-      </c>
-      <c r="N22">
-        <f>F22-$D$1</f>
         <v>-34</v>
       </c>
-      <c r="O22" s="4">
+      <c r="Z22" s="4">
+        <f t="shared" si="15"/>
+        <v>658</v>
+      </c>
+      <c r="AA22">
         <f t="shared" si="2"/>
-        <v>658</v>
-      </c>
-      <c r="P22">
-        <f>MOD(TRUNC(O22*2550/860) +D22,255)</f>
         <v>166</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="AB22" s="4">
+        <f t="shared" si="16"/>
+        <v>234.35294117647058</v>
+      </c>
+      <c r="AD22" s="3">
         <f t="shared" si="3"/>
-        <v>234.35294117647058</v>
-      </c>
-      <c r="S22" s="3">
-        <f>SQRT((M22*M22)+(N22*N22)+($F$1*$F$1))</f>
         <v>65.817930687617334</v>
       </c>
-      <c r="T22" s="3">
-        <f>MOD(((S22*255)/$U$1) +D22,255)</f>
+      <c r="AE22" s="3">
+        <f t="shared" si="4"/>
         <v>166.57817736539755</v>
       </c>
-      <c r="U22" s="4">
-        <f>MOD((S22*360)/$U$1,360)</f>
+      <c r="AF22" s="4">
+        <f>MOD(((AD22*360)/$AF$1) + ((D22*360)/255),360)</f>
         <v>235.16919157467919</v>
       </c>
-      <c r="W22" s="4">
-        <f>T22-P22</f>
+      <c r="AH22" s="4">
+        <f t="shared" si="5"/>
         <v>0.5781773653975506</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -3251,54 +3974,88 @@
         <v>128</v>
       </c>
       <c r="I23">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23">
+        <f>TRUNC(((G23) * 10) / 255)</f>
+        <v>9</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="7"/>
+        <v>324</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="8"/>
+        <v>33.78945803938268</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="10"/>
+        <v>315</v>
+      </c>
+      <c r="R23" s="4">
+        <f t="shared" si="11"/>
+        <v>42.78945803938268</v>
+      </c>
+      <c r="S23" s="4"/>
+      <c r="T23">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="14"/>
+        <v>57.78945803938268</v>
+      </c>
+      <c r="W23" s="4"/>
+      <c r="X23">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J23">
+        <v>26</v>
+      </c>
+      <c r="Y23">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K23" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23">
-        <f>E23-$B$1</f>
-        <v>26</v>
-      </c>
-      <c r="N23">
-        <f>F23-$D$1</f>
         <v>-19</v>
       </c>
-      <c r="O23" s="4">
+      <c r="Z23" s="4">
+        <f t="shared" si="15"/>
+        <v>594</v>
+      </c>
+      <c r="AA23">
         <f t="shared" si="2"/>
-        <v>594</v>
-      </c>
-      <c r="P23">
-        <f>MOD(TRUNC(O23*2550/860) +D23,255)</f>
         <v>251</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="AB23" s="4">
+        <f t="shared" si="16"/>
+        <v>354.35294117647061</v>
+      </c>
+      <c r="AD23" s="3">
         <f t="shared" si="3"/>
-        <v>354.35294117647061</v>
-      </c>
-      <c r="S23" s="3">
-        <f>SQRT((M23*M23)+(N23*N23)+($F$1*$F$1))</f>
         <v>59.472682804797024</v>
       </c>
-      <c r="T23" s="3">
-        <f>MOD(((S23*255)/$U$1) +D23,255)</f>
+      <c r="AE23" s="3">
+        <f t="shared" si="4"/>
         <v>253.43419944456309</v>
       </c>
-      <c r="U23" s="4">
-        <f>MOD((S23*360)/$U$1,360)</f>
-        <v>329.55416392173584</v>
-      </c>
-      <c r="W23" s="4">
-        <f>T23-P23</f>
+      <c r="AF23" s="4">
+        <f>MOD(((AD23*360)/$AF$1) + ((D23*360)/255),360)</f>
+        <v>357.78945803938268</v>
+      </c>
+      <c r="AH23" s="4">
+        <f t="shared" si="5"/>
         <v>2.4341994445630917</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3324,54 +4081,88 @@
         <v>128</v>
       </c>
       <c r="I24">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24">
+        <f>TRUNC(((G24) * 10) / 255)</f>
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="7"/>
+        <v>252</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="8"/>
+        <v>9.4942538432910624</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="10"/>
+        <v>225</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="11"/>
+        <v>36.494253843291062</v>
+      </c>
+      <c r="S24" s="4"/>
+      <c r="T24">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="13"/>
+        <v>240</v>
+      </c>
+      <c r="V24" s="4">
+        <f t="shared" si="14"/>
+        <v>21.494253843291062</v>
+      </c>
+      <c r="W24" s="4"/>
+      <c r="X24">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J24">
+        <v>26</v>
+      </c>
+      <c r="Y24">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="K24" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24">
-        <f>E24-$B$1</f>
-        <v>26</v>
-      </c>
-      <c r="N24">
-        <f>F24-$D$1</f>
         <v>-4</v>
       </c>
-      <c r="O24" s="4">
+      <c r="Z24" s="4">
+        <f t="shared" si="15"/>
+        <v>564</v>
+      </c>
+      <c r="AA24">
         <f t="shared" si="2"/>
-        <v>564</v>
-      </c>
-      <c r="P24">
-        <f>MOD(TRUNC(O24*2550/860) +D24,255)</f>
         <v>182</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="AB24" s="4">
+        <f t="shared" si="16"/>
+        <v>256.94117647058823</v>
+      </c>
+      <c r="AD24" s="3">
         <f t="shared" si="3"/>
-        <v>256.94117647058823</v>
-      </c>
-      <c r="S24" s="3">
-        <f>SQRT((M24*M24)+(N24*N24)+($F$1*$F$1))</f>
         <v>56.49778756730214</v>
       </c>
-      <c r="T24" s="3">
-        <f>MOD(((S24*255)/$U$1) +D24,255)</f>
+      <c r="AE24" s="3">
+        <f t="shared" si="4"/>
         <v>185.22509647233096</v>
       </c>
-      <c r="U24" s="4">
-        <f>MOD((S24*360)/$U$1,360)</f>
-        <v>205.02366560799692</v>
-      </c>
-      <c r="W24" s="4">
-        <f>T24-P24</f>
+      <c r="AF24" s="4">
+        <f>MOD(((AD24*360)/$AF$1) + ((D24*360)/255),360)</f>
+        <v>261.49425384329106</v>
+      </c>
+      <c r="AH24" s="4">
+        <f t="shared" si="5"/>
         <v>3.2250964723309608</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -3397,54 +4188,88 @@
         <v>128</v>
       </c>
       <c r="I25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25">
+        <f>TRUNC(((G25) * 10) / 255)</f>
+        <v>9</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="7"/>
+        <v>324</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="8"/>
+        <v>4.3132308106214623</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="10"/>
+        <v>315</v>
+      </c>
+      <c r="R25" s="4">
+        <f t="shared" si="11"/>
+        <v>13.313230810621462</v>
+      </c>
+      <c r="S25" s="4"/>
+      <c r="T25">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="V25" s="4">
+        <f t="shared" si="14"/>
+        <v>28.313230810621462</v>
+      </c>
+      <c r="W25" s="4"/>
+      <c r="X25">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J25">
+        <v>26</v>
+      </c>
+      <c r="Y25">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K25" t="s">
-        <v>30</v>
-      </c>
-      <c r="M25">
-        <f>E25-$B$1</f>
-        <v>26</v>
-      </c>
-      <c r="N25">
-        <f>F25-$D$1</f>
         <v>11</v>
       </c>
-      <c r="O25" s="4">
+      <c r="Z25" s="4">
+        <f t="shared" si="15"/>
+        <v>574</v>
+      </c>
+      <c r="AA25">
         <f t="shared" si="2"/>
-        <v>574</v>
-      </c>
-      <c r="P25">
-        <f>MOD(TRUNC(O25*2550/860) +D25,255)</f>
         <v>231</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="AB25" s="4">
+        <f t="shared" si="16"/>
+        <v>326.11764705882354</v>
+      </c>
+      <c r="AD25" s="3">
         <f t="shared" si="3"/>
-        <v>326.11764705882354</v>
-      </c>
-      <c r="S25" s="3">
-        <f>SQRT((M25*M25)+(N25*N25)+($F$1*$F$1))</f>
         <v>57.419508879822367</v>
       </c>
-      <c r="T25" s="3">
-        <f>MOD(((S25*255)/$U$1) +D25,255)</f>
+      <c r="AE25" s="3">
+        <f t="shared" si="4"/>
         <v>232.55520515752369</v>
       </c>
-      <c r="U25" s="4">
-        <f>MOD((S25*360)/$U$1,360)</f>
-        <v>243.60734845768047</v>
-      </c>
-      <c r="W25" s="4">
-        <f>T25-P25</f>
+      <c r="AF25" s="4">
+        <f>MOD(((AD25*360)/$AF$1) + ((D25*360)/255),360)</f>
+        <v>328.31323081062146</v>
+      </c>
+      <c r="AH25" s="4">
+        <f t="shared" si="5"/>
         <v>1.5552051575236874</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -3470,54 +4295,88 @@
         <v>128</v>
       </c>
       <c r="I26">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26">
+        <f>TRUNC(((G26) * 10) / 255)</f>
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="8"/>
+        <v>10.98928517098102</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="10"/>
+        <v>180</v>
+      </c>
+      <c r="R26" s="4">
+        <f t="shared" si="11"/>
+        <v>10.98928517098102</v>
+      </c>
+      <c r="S26" s="4"/>
+      <c r="T26">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="13"/>
+        <v>180</v>
+      </c>
+      <c r="V26" s="4">
+        <f t="shared" si="14"/>
+        <v>10.98928517098102</v>
+      </c>
+      <c r="W26" s="4"/>
+      <c r="X26">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J26">
+        <v>26</v>
+      </c>
+      <c r="Y26">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="K26" t="s">
         <v>26</v>
       </c>
-      <c r="M26">
-        <f>E26-$B$1</f>
-        <v>26</v>
-      </c>
-      <c r="N26">
-        <f>F26-$D$1</f>
-        <v>26</v>
-      </c>
-      <c r="O26" s="4">
+      <c r="Z26" s="4">
+        <f t="shared" si="15"/>
+        <v>620</v>
+      </c>
+      <c r="AA26">
         <f t="shared" si="2"/>
-        <v>620</v>
-      </c>
-      <c r="P26">
-        <f>MOD(TRUNC(O26*2550/860) +D26,255)</f>
         <v>133</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="AB26" s="4">
+        <f t="shared" si="16"/>
+        <v>187.76470588235293</v>
+      </c>
+      <c r="AD26" s="3">
         <f t="shared" si="3"/>
-        <v>187.76470588235293</v>
-      </c>
-      <c r="S26" s="3">
-        <f>SQRT((M26*M26)+(N26*N26)+($F$1*$F$1))</f>
         <v>62.064482596731601</v>
       </c>
-      <c r="T26" s="3">
-        <f>MOD(((S26*255)/$U$1) +D26,255)</f>
+      <c r="AE26" s="3">
+        <f t="shared" si="4"/>
         <v>135.28407699611148</v>
       </c>
-      <c r="U26" s="4">
-        <f>MOD((S26*360)/$U$1,360)</f>
-        <v>78.048108700392731</v>
-      </c>
-      <c r="W26" s="4">
-        <f>T26-P26</f>
+      <c r="AF26" s="4">
+        <f>MOD(((AD26*360)/$AF$1) + ((D26*360)/255),360)</f>
+        <v>190.98928517098102</v>
+      </c>
+      <c r="AH26" s="4">
+        <f t="shared" si="5"/>
         <v>2.2840769961114802</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3543,58 +4402,141 @@
         <v>128</v>
       </c>
       <c r="I27">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27">
+        <f>TRUNC(((G27) * 10) / 255)</f>
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="8"/>
+        <v>34.523554425134535</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="10"/>
+        <v>135</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" si="11"/>
+        <v>43.523554425134535</v>
+      </c>
+      <c r="S27" s="4"/>
+      <c r="T27">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="V27" s="4">
+        <f t="shared" si="14"/>
+        <v>58.523554425134535</v>
+      </c>
+      <c r="W27" s="4"/>
+      <c r="X27">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J27">
+        <v>26</v>
+      </c>
+      <c r="Y27">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K27" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27">
-        <f>E27-$B$1</f>
-        <v>26</v>
-      </c>
-      <c r="N27">
-        <f>F27-$D$1</f>
         <v>41</v>
       </c>
-      <c r="O27" s="4">
+      <c r="Z27" s="4">
+        <f t="shared" si="15"/>
+        <v>696</v>
+      </c>
+      <c r="AA27">
         <f t="shared" si="2"/>
-        <v>696</v>
-      </c>
-      <c r="P27">
-        <f>MOD(TRUNC(O27*2550/860) +D27,255)</f>
         <v>123</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="AB27" s="4">
+        <f t="shared" si="16"/>
+        <v>173.64705882352942</v>
+      </c>
+      <c r="AD27" s="3">
         <f t="shared" si="3"/>
-        <v>173.64705882352942</v>
-      </c>
-      <c r="S27" s="3">
-        <f>SQRT((M27*M27)+(N27*N27)+($F$1*$F$1))</f>
         <v>69.692180336103704</v>
       </c>
-      <c r="T27" s="3">
-        <f>MOD(((S27*255)/$U$1) +D27,255)</f>
+      <c r="AE27" s="3">
+        <f t="shared" si="4"/>
         <v>126.45418438447041</v>
       </c>
-      <c r="U27" s="4">
-        <f>MOD((S27*360)/$U$1,360)</f>
-        <v>37.347083836899401</v>
-      </c>
-      <c r="W27" s="4">
-        <f>T27-P27</f>
+      <c r="AF27" s="4">
+        <f>MOD(((AD27*360)/$AF$1) + ((D27*360)/255),360)</f>
+        <v>178.52355442513453</v>
+      </c>
+      <c r="AH27" s="4">
+        <f t="shared" si="5"/>
         <v>3.454184384470409</v>
       </c>
     </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" s="4">
+        <f>AVERAGE(N4:N27)</f>
+        <v>18.345459374090904</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>38</v>
+      </c>
+      <c r="R28" s="4">
+        <f>AVERAGE(R4:R27)</f>
+        <v>23.220459374090904</v>
+      </c>
+      <c r="U28" t="s">
+        <v>38</v>
+      </c>
+      <c r="V28" s="4">
+        <f>AVERAGE(V4:V27)</f>
+        <v>33.8454593740909</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>39</v>
+      </c>
+      <c r="N29" s="4">
+        <f>_xlfn.STDEV.P(N4:N27)</f>
+        <v>8.7596901291571037</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>39</v>
+      </c>
+      <c r="R29" s="4">
+        <f>_xlfn.STDEV.P(R4:R27)</f>
+        <v>12.756131481795306</v>
+      </c>
+      <c r="U29" t="s">
+        <v>39</v>
+      </c>
+      <c r="V29" s="4">
+        <f>_xlfn.STDEV.P(V4:V27)</f>
+        <v>17.692004545358582</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="S2:U2"/>
+  <mergeCells count="6">
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="T2:V2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
